--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_177.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_177.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['E', 'E/5', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:01.881201', '0:01:05.886643')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.720000', '0:00:06.880000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04010416666666666</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'A:dim7'], ['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab'], ['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1768018018018018</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:dim7'], ['C:7', 'F', 'F'], ['G:7', 'C:7', 'F'], ['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.77, 3.22), (92.53, 93.66), (85.94, 88.28), (18.07, 19.25), (4.83, 7.28)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(97.41, 99.72), (112.99, 115.33), (103.18, 106.06), (4.07, 7.47), (41.58, 45.01)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:14.820000', '0:00:16.260000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06777557100297915</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'A'], ['A', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'D'], ['D', 'D', 'G/5']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.508294, 17.444076), (14.448702, 17.908476)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907), (12.707687, 24.062244)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1696428571428572</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:maj', 'Bb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(62.76, 72.921)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(48.617346, 59.937074)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09326923076923077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'D:min7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(62.27, 67.88)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(67.84, 76.2)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['F:7', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:04.820000', '0:00:10.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.28, 11.68)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(56.454081, 61.864331)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(56.28, 62.78)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.251, 70.247)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.6, 11.26), (31.14, 41.42)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (66.04, 69.18)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(68.08, 87.32)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.18, 48.16)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_28</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.82, 47.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.620158, 13.055986)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
